--- a/artfynd/A 8507-2019.xlsx
+++ b/artfynd/A 8507-2019.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74691190</v>
+        <v>74691172</v>
       </c>
       <c r="B7" t="n">
-        <v>96237</v>
+        <v>94121</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,25 +1292,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220093</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489937.5293601744</v>
+        <v>489802.4589430426</v>
       </c>
       <c r="R7" t="n">
-        <v>6630142.784270664</v>
+        <v>6630505.86349335</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,6 +1380,11 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>barklös tallåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1397,10 +1402,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74691191</v>
+        <v>89749158</v>
       </c>
       <c r="B8" t="n">
-        <v>89170</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1409,38 +1414,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
+          <t>Holmtjärnen, sydost om, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489926.919257636</v>
+        <v>489838.2431034451</v>
       </c>
       <c r="R8" t="n">
-        <v>6630132.751155663</v>
+        <v>6630692.892635548</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,6 +1474,11 @@
           <t>Hjulsjö</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>T-Häl-7029</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2018-10-03</t>
@@ -1491,33 +1505,38 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>Barrnaturskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
+          <t>Henrik Josefsson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
           <t>Sebastian Kirppu</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74691195</v>
+        <v>74691179</v>
       </c>
       <c r="B9" t="n">
-        <v>93868</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,25 +1545,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1554,10 +1573,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489927.672337282</v>
+        <v>489837.4841782672</v>
       </c>
       <c r="R9" t="n">
-        <v>6630038.669594199</v>
+        <v>6630415.218850428</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1614,6 +1633,11 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1631,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74691179</v>
+        <v>74691190</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>96237</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1643,25 +1667,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>220093</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1671,10 +1695,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489837.4841782672</v>
+        <v>489937.5293601744</v>
       </c>
       <c r="R10" t="n">
-        <v>6630415.218850428</v>
+        <v>6630142.784270664</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1731,11 +1755,6 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1753,10 +1772,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74691172</v>
+        <v>74691191</v>
       </c>
       <c r="B11" t="n">
-        <v>94121</v>
+        <v>89170</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1765,25 +1784,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1793,10 +1812,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489802.4589430426</v>
+        <v>489926.919257636</v>
       </c>
       <c r="R11" t="n">
-        <v>6630505.86349335</v>
+        <v>6630132.751155663</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1853,11 +1872,6 @@
       <c r="AI11" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>barklös tallåga</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1875,10 +1889,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89749158</v>
+        <v>74691195</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>93868</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1887,42 +1901,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Holmtjärnen, sydost om, Vstm</t>
+          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489838.2431034451</v>
+        <v>489927.672337282</v>
       </c>
       <c r="R12" t="n">
-        <v>6630692.892635548</v>
+        <v>6630038.669594199</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,11 +1957,6 @@
           <t>Hjulsjö</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>T-Häl-7029</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>2018-10-03</t>
@@ -1978,19 +1983,18 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Barrnaturskog</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Henrik Josefsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
@@ -1998,11 +2002,7 @@
           <t>Sebastian Kirppu</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 8507-2019.xlsx
+++ b/artfynd/A 8507-2019.xlsx
@@ -1280,10 +1280,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74691172</v>
+        <v>74691190</v>
       </c>
       <c r="B7" t="n">
-        <v>94121</v>
+        <v>96237</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,25 +1292,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>220093</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489802.4589430426</v>
+        <v>489937.5293601744</v>
       </c>
       <c r="R7" t="n">
-        <v>6630505.86349335</v>
+        <v>6630142.784270664</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,11 +1380,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>barklös tallåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1402,10 +1397,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89749158</v>
+        <v>74691191</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>89170</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,42 +1409,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Holmtjärnen, sydost om, Vstm</t>
+          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489838.2431034451</v>
+        <v>489926.919257636</v>
       </c>
       <c r="R8" t="n">
-        <v>6630692.892635548</v>
+        <v>6630132.751155663</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1474,11 +1465,6 @@
           <t>Hjulsjö</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>T-Häl-7029</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2018-10-03</t>
@@ -1505,19 +1491,18 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Barrnaturskog</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Henrik Josefsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -1525,18 +1510,14 @@
           <t>Sebastian Kirppu</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74691179</v>
+        <v>74691195</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>93868</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1545,25 +1526,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1573,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489837.4841782672</v>
+        <v>489927.672337282</v>
       </c>
       <c r="R9" t="n">
-        <v>6630415.218850428</v>
+        <v>6630038.669594199</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1633,11 +1614,6 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1655,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74691190</v>
+        <v>74691179</v>
       </c>
       <c r="B10" t="n">
-        <v>96237</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,25 +1643,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220093</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1695,10 +1671,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489937.5293601744</v>
+        <v>489837.4841782672</v>
       </c>
       <c r="R10" t="n">
-        <v>6630142.784270664</v>
+        <v>6630415.218850428</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1755,6 +1731,11 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1772,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74691191</v>
+        <v>74691172</v>
       </c>
       <c r="B11" t="n">
-        <v>89170</v>
+        <v>94121</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1784,25 +1765,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1812,10 +1793,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489926.919257636</v>
+        <v>489802.4589430426</v>
       </c>
       <c r="R11" t="n">
-        <v>6630132.751155663</v>
+        <v>6630505.86349335</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1872,6 +1853,11 @@
       <c r="AI11" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>barklös tallåga</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1889,10 +1875,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74691195</v>
+        <v>89749158</v>
       </c>
       <c r="B12" t="n">
-        <v>93868</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1901,38 +1887,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
+          <t>Holmtjärnen, sydost om, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489927.672337282</v>
+        <v>489838.2431034451</v>
       </c>
       <c r="R12" t="n">
-        <v>6630038.669594199</v>
+        <v>6630692.892635548</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1957,6 +1947,11 @@
           <t>Hjulsjö</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>T-Häl-7029</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>2018-10-03</t>
@@ -1983,26 +1978,31 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>Barrnaturskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
+          <t>Henrik Josefsson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
           <t>Sebastian Kirppu</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
